--- a/ESP32.xlsx
+++ b/ESP32.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\aut_esp_32\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +25,7 @@
     <author>Flavio Cabral Silva</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0" shapeId="0">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>GND</t>
   </si>
@@ -172,9 +167,6 @@
     <t>RL4</t>
   </si>
   <si>
-    <t>BUZZ</t>
-  </si>
-  <si>
     <t>MQ2</t>
   </si>
   <si>
@@ -211,12 +203,6 @@
     <t>LED_BLUE</t>
   </si>
   <si>
-    <t>S. Alarme</t>
-  </si>
-  <si>
-    <t>Reset WIFI</t>
-  </si>
-  <si>
     <t>S D A</t>
   </si>
   <si>
@@ -226,17 +212,17 @@
     <t>IN5</t>
   </si>
   <si>
-    <t>RL5</t>
-  </si>
-  <si>
     <t>RF</t>
+  </si>
+  <si>
+    <t>BUZZER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,8 +243,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,25 +260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,8 +294,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -382,24 +369,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,40 +381,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -881,7 +849,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -892,7 +860,7 @@
   <dimension ref="C3:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,50 +875,48 @@
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2">
         <v>23</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="2">
         <v>22</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>27</v>
+      <c r="J5" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
-        <v>12</v>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="2">
         <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
-        <v>30</v>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="2">
         <v>35</v>
@@ -958,12 +924,12 @@
       <c r="I8" s="2">
         <v>21</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>26</v>
+      <c r="J8" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2">
@@ -972,12 +938,12 @@
       <c r="I9" s="2">
         <v>19</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>13</v>
+      <c r="J9" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2">
@@ -986,12 +952,12 @@
       <c r="I10" s="2">
         <v>18</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>29</v>
+      <c r="J10" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2">
@@ -1000,40 +966,36 @@
       <c r="I11" s="2">
         <v>5</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2">
         <v>26</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="2">
         <v>27</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2">
@@ -1042,12 +1004,12 @@
       <c r="I14" s="2">
         <v>4</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>21</v>
+      <c r="J14" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2">
@@ -1056,12 +1018,12 @@
       <c r="I15" s="2">
         <v>2</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>23</v>
+      <c r="J15" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2">
@@ -1070,8 +1032,8 @@
       <c r="I16" s="2">
         <v>15</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>22</v>
+      <c r="J16" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">

--- a/ESP32.xlsx
+++ b/ESP32.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>GND</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>BUZZER</t>
+  </si>
+  <si>
+    <t>PIR</t>
   </si>
 </sst>
 </file>
@@ -251,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +309,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -373,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,6 +419,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,7 +861,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -860,7 +872,7 @@
   <dimension ref="C3:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,7 +990,9 @@
       <c r="I12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">

--- a/ESP32.xlsx
+++ b/ESP32.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dm8-my.sharepoint.com/personal/flavio_cabral_dm8_com_br/Documents/Documentos/GitHub/Autormacao_esp32/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_BC54B5FEE25CE662683F85144872501328FAE4EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D38FAE22-45A2-48C4-BA83-72ED40E8938A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Flavio Cabral Silva</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -209,9 +215,6 @@
     <t>S C L</t>
   </si>
   <si>
-    <t>IN5</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
@@ -219,12 +222,15 @@
   </si>
   <si>
     <t>PIR</t>
+  </si>
+  <si>
+    <t>IR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,7 +463,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="AutoShape 1" descr="esp32"/>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="esp32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -499,7 +511,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -542,7 +560,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -580,7 +604,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -861,18 +891,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,6 +925,9 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
@@ -928,7 +961,7 @@
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>35</v>
@@ -965,7 +998,7 @@
         <v>18</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
@@ -991,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
@@ -1004,9 +1037,7 @@
       <c r="I13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
@@ -1076,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">

--- a/ESP32.xlsx
+++ b/ESP32.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dm8-my.sharepoint.com/personal/flavio_cabral_dm8_com_br/Documents/Documentos/GitHub/Autormacao_esp32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_BC54B5FEE25CE662683F85144872501328FAE4EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D38FAE22-45A2-48C4-BA83-72ED40E8938A}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_BC54B5FEE25CE662683F85144872501328FAE4EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CBD9E3C-45EA-4393-903B-235CF29451B1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="1530" windowWidth="18000" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>GND</t>
   </si>
@@ -221,17 +221,23 @@
     <t>BUZZER</t>
   </si>
   <si>
-    <t>PIR</t>
-  </si>
-  <si>
     <t>IR</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>DIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,8 +265,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,12 +294,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,12 +323,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -384,11 +390,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,38 +448,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:J18"/>
+  <dimension ref="C3:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,21 +973,21 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="2">
         <v>23</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
-        <v>28</v>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -934,21 +995,21 @@
       <c r="I5" s="2">
         <v>22</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2">
@@ -957,10 +1018,10 @@
       <c r="I7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2">
@@ -969,12 +1030,12 @@
       <c r="I8" s="2">
         <v>21</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2">
@@ -983,12 +1044,12 @@
       <c r="I9" s="2">
         <v>19</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2">
@@ -997,12 +1058,12 @@
       <c r="I10" s="2">
         <v>18</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2">
@@ -1011,10 +1072,15 @@
       <c r="I11" s="2">
         <v>5</v>
       </c>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
+      <c r="J11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2">
@@ -1023,12 +1089,13 @@
       <c r="I12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+      <c r="J12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="2">
@@ -1037,10 +1104,10 @@
       <c r="I13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2">
@@ -1049,12 +1116,12 @@
       <c r="I14" s="2">
         <v>4</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2">
@@ -1063,12 +1130,12 @@
       <c r="I15" s="2">
         <v>2</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2">
@@ -1077,7 +1144,7 @@
       <c r="I16" s="2">
         <v>15</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1099,6 +1166,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K11:K12"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/ESP32.xlsx
+++ b/ESP32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dm8-my.sharepoint.com/personal/flavio_cabral_dm8_com_br/Documents/Documentos/GitHub/Autormacao_esp32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_BC54B5FEE25CE662683F85144872501328FAE4EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CBD9E3C-45EA-4393-903B-235CF29451B1}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_BC54B5FEE25CE662683F85144872501328FAE4EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2912409-A138-4F77-8F6F-374A53E1FDD2}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="1530" windowWidth="18000" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>GND</t>
   </si>
@@ -222,15 +222,6 @@
   </si>
   <si>
     <t>IR</t>
-  </si>
-  <si>
-    <t>CLK</t>
-  </si>
-  <si>
-    <t>DIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display </t>
   </si>
 </sst>
 </file>
@@ -478,16 +469,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -963,7 +954,7 @@
   <dimension ref="C3:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,12 +1063,8 @@
       <c r="I11" s="2">
         <v>5</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
@@ -1089,10 +1076,8 @@
       <c r="I12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">

--- a/ESP32.xlsx
+++ b/ESP32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dm8-my.sharepoint.com/personal/flavio_cabral_dm8_com_br/Documents/Documentos/GitHub/Autormacao_esp32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_BC54B5FEE25CE662683F85144872501328FAE4EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2912409-A138-4F77-8F6F-374A53E1FDD2}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_BC54B5FEE25CE662683F85144872501328FAE4EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91AC597A-9DEB-4614-B1E0-06E2EBF26383}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="1530" windowWidth="18000" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -414,24 +414,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,9 +457,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -954,7 +938,7 @@
   <dimension ref="C3:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,9 +961,6 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1045,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
@@ -1076,8 +1057,10 @@
       <c r="I12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="16"/>
+      <c r="J12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
